--- a/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T12:03:32-03:00</t>
+    <t>2023-01-25T13:45:37-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="295">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T13:45:37-03:00</t>
+    <t>2023-01-30T23:51:40-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -818,7 +818,7 @@
     <t>Items can repeat in the answers, so a direct 1..1 correspondence by position might not exist - requiring correspondence by identifier.</t>
   </si>
   <si>
-    <t>resumen</t>
+    <t>Resumen</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=DEFN].target[classCode=OBS, moodCode=DEFN].id</t>
@@ -853,9 +853,6 @@
   </si>
   <si>
     <t>Allows the questionnaire response to be read without access to the questionnaire.</t>
-  </si>
-  <si>
-    <t>Resumen</t>
   </si>
   <si>
     <t>.text</t>
@@ -4241,7 +4238,7 @@
         <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>76</v>
@@ -4298,7 +4295,7 @@
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4306,10 +4303,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4335,13 +4332,13 @@
         <v>232</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4391,7 +4388,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
@@ -4409,7 +4406,7 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4417,10 +4414,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4526,10 +4523,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4637,10 +4634,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4750,10 +4747,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4776,19 +4773,19 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4813,14 +4810,14 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
       </c>
@@ -4837,7 +4834,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
@@ -4855,7 +4852,7 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -4863,10 +4860,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4892,14 +4889,14 @@
         <v>77</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -4948,7 +4945,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
@@ -4974,10 +4971,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5003,14 +5000,14 @@
         <v>77</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5059,7 +5056,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>

--- a/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T23:51:40-03:00</t>
+    <t>2023-01-31T15:14:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-31T15:14:06-03:00</t>
+    <t>2023-02-10T14:01:31-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T14:01:31-03:00</t>
+    <t>2023-02-13T10:57:49-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:57:49-03:00</t>
+    <t>2023-02-14T08:51:49-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T08:51:49-03:00</t>
+    <t>2023-02-14T11:46:47-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:46:47-03:00</t>
+    <t>2023-02-14T13:39:18-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T13:39:18-03:00</t>
+    <t>2023-02-15T12:48:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1240,17 +1240,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.9140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.9140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="46.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.9375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.9375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="47.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.84765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.89453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1259,25 +1259,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.0" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.9375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.70703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.4609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.64453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="42.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="108.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="111.80859375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T12:48:14-03:00</t>
+    <t>2023-02-17T16:26:02-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1240,17 +1240,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.9375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="51.9375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="47.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.9140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.9140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="46.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.89453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="81.84765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1259,25 +1259,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.4609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.64453125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.84375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.0" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.9375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="41.70703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="111.80859375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="108.703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T16:26:02-03:00</t>
+    <t>2023-02-22T17:19:22-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T17:19:22-03:00</t>
+    <t>2023-03-02T16:47:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T16:47:17-03:00</t>
+    <t>2023-03-10T16:52:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:52:05-03:00</t>
+    <t>2023-03-11T07:17:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-11T07:17:50-03:00</t>
+    <t>2023-04-21T12:02:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1240,17 +1240,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.9140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.9140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="46.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.9375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.9375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="47.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.84765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.89453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1259,25 +1259,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.0" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.9375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.70703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.4609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.64453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="42.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="108.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="111.80859375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
+++ b/docs/StructureDefinition-QuestionnaireResponseInicioLE.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T12:02:08-04:00</t>
+    <t>2023-05-08T17:35:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
